--- a/SE202526/Management/Sprint5/burndown/Sprint5_Burndown.xlsx
+++ b/SE202526/Management/Sprint5/burndown/Sprint5_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\UNI\y3\ES\Proj\SE2526_67775_67804_67286_68130_68547_67763\SE202526\Management\Sprint5\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4EBCDE-BDD4-4791-BFB0-533415A06BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC9B9DD-4F0F-4384-81B7-20381E2BFC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="84">
   <si>
     <t>Sprint 1 Burndown Chart</t>
   </si>
@@ -361,22 +361,19 @@
     <t>T24: Review and look into what a Use case diagram covering leakage added feature would look like.</t>
   </si>
   <si>
-    <t>T25: Look into what a Use case diagram covering undo/redo added feature would look like.</t>
+    <t>Sprint 5 Burndown Chart</t>
   </si>
   <si>
-    <t>T26: Go over milestone 2 reviews and identify issues that can be worked on.</t>
+    <t>T28: Work on implementing US2 (Leaks).</t>
   </si>
   <si>
-    <t>T27: identify areas of code relating to leaks.</t>
+    <t>T27: Work on implementing US1 (Undo / Redo).</t>
   </si>
   <si>
-    <t>T29: identify areas of code to help with use sequence diagrams</t>
+    <t>T25: Go over milestone 2 reviews and identify issues that can be worked on.</t>
   </si>
   <si>
-    <t>T28: identify areas of code to help with use case diagrams</t>
-  </si>
-  <si>
-    <t>Sprint 5 Burndown Chart</t>
+    <t>T26: identify areas of code relating to leaks.</t>
   </si>
 </sst>
 </file>
@@ -1186,6 +1183,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1207,22 +1215,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -3566,7 +3563,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint5'!$D$13:$K$13</c:f>
+              <c:f>'Burndown Chart Sprint5'!$D$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3574,10 +3571,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3691,33 +3688,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint5'!$D$14:$K$14</c:f>
+              <c:f>'Burndown Chart Sprint5'!$D$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3778,7 +3775,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint5'!$D$15:$K$15</c:f>
+              <c:f>'Burndown Chart Sprint5'!$D$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4137,7 +4134,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9639300" cy="4886325"/>
@@ -4385,50 +4382,50 @@
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="55"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="60"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="65" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -4473,8 +4470,8 @@
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="59"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4695,10 +4692,10 @@
       <c r="P11" s="24"/>
     </row>
     <row r="12" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="26">
         <v>0</v>
       </c>
@@ -4752,10 +4749,10 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="32">
         <f>SUM(D6:D12)</f>
         <v>14</v>
@@ -4810,10 +4807,10 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="39">
         <f>D13</f>
         <v>14</v>
@@ -5887,40 +5884,40 @@
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="65" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -5950,8 +5947,8 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="59"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -6181,10 +6178,10 @@
       <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="26">
         <v>0</v>
       </c>
@@ -6218,10 +6215,10 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="32">
         <f>SUM(D6:D15)</f>
         <v>6.5</v>
@@ -6256,10 +6253,10 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="39">
         <f>D16</f>
         <v>6.5</v>
@@ -7311,40 +7308,40 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="65" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -7373,8 +7370,8 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="59"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -7419,11 +7416,11 @@
         <v>0.1</v>
       </c>
       <c r="K6" s="16"/>
-      <c r="L6" s="69" t="str">
+      <c r="L6" s="70" t="str">
         <f t="shared" ref="L6:L37" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M6" s="70"/>
+      <c r="M6" s="71"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N37" si="1">SUM(E6:K6)</f>
         <v>0.1</v>
@@ -7454,11 +7451,11 @@
       <c r="I7" s="23"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="69" t="str">
+      <c r="L7" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M7" s="70"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -7493,11 +7490,11 @@
       <c r="K8" s="22">
         <v>0.15</v>
       </c>
-      <c r="L8" s="69" t="str">
+      <c r="L8" s="70" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="71"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -7530,11 +7527,11 @@
         <v>0.25</v>
       </c>
       <c r="K9" s="22"/>
-      <c r="L9" s="69" t="str">
+      <c r="L9" s="70" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M9" s="70"/>
+      <c r="M9" s="71"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -7567,11 +7564,11 @@
         <v>0.25</v>
       </c>
       <c r="K10" s="22"/>
-      <c r="L10" s="69" t="str">
+      <c r="L10" s="70" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M10" s="70"/>
+      <c r="M10" s="71"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -7604,11 +7601,11 @@
       <c r="K11" s="22">
         <v>0.25</v>
       </c>
-      <c r="L11" s="69" t="str">
+      <c r="L11" s="70" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M11" s="70"/>
+      <c r="M11" s="71"/>
       <c r="N11" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -7639,11 +7636,11 @@
         <v>0.25</v>
       </c>
       <c r="K12" s="22"/>
-      <c r="L12" s="69" t="str">
+      <c r="L12" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M12" s="70"/>
+      <c r="M12" s="71"/>
       <c r="N12" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -7676,11 +7673,11 @@
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="69" t="str">
+      <c r="L13" s="70" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -7711,11 +7708,11 @@
       <c r="K14" s="22">
         <v>0.2</v>
       </c>
-      <c r="L14" s="69" t="str">
+      <c r="L14" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M14" s="70"/>
+      <c r="M14" s="71"/>
       <c r="N14" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -7748,11 +7745,11 @@
       <c r="K15" s="22">
         <v>0.2</v>
       </c>
-      <c r="L15" s="69" t="str">
+      <c r="L15" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="71"/>
       <c r="N15" s="44">
         <f t="shared" si="1"/>
         <v>0.45</v>
@@ -7785,11 +7782,11 @@
         <v>0.3</v>
       </c>
       <c r="K16" s="22"/>
-      <c r="L16" s="69" t="str">
+      <c r="L16" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M16" s="70"/>
+      <c r="M16" s="71"/>
       <c r="N16" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -7822,11 +7819,11 @@
       <c r="K17" s="22">
         <v>0.2</v>
       </c>
-      <c r="L17" s="69" t="str">
+      <c r="L17" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M17" s="70"/>
+      <c r="M17" s="71"/>
       <c r="N17" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -7855,11 +7852,11 @@
       <c r="I18" s="23"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="69" t="str">
+      <c r="L18" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M18" s="70"/>
+      <c r="M18" s="71"/>
       <c r="N18" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7892,11 +7889,11 @@
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="69" t="str">
+      <c r="L19" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M19" s="70"/>
+      <c r="M19" s="71"/>
       <c r="N19" s="44">
         <f t="shared" si="1"/>
         <v>0.35</v>
@@ -7933,11 +7930,11 @@
       <c r="K20" s="22">
         <v>0.2</v>
       </c>
-      <c r="L20" s="69" t="str">
+      <c r="L20" s="70" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M20" s="70"/>
+      <c r="M20" s="71"/>
       <c r="N20" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -7972,11 +7969,11 @@
       <c r="K21" s="22">
         <v>0.2</v>
       </c>
-      <c r="L21" s="69" t="str">
+      <c r="L21" s="70" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M21" s="70"/>
+      <c r="M21" s="71"/>
       <c r="N21" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8013,11 +8010,11 @@
       <c r="K22" s="22">
         <v>0.2</v>
       </c>
-      <c r="L22" s="69" t="str">
+      <c r="L22" s="70" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M22" s="70"/>
+      <c r="M22" s="71"/>
       <c r="N22" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8048,11 +8045,11 @@
       <c r="K23" s="22">
         <v>0.25</v>
       </c>
-      <c r="L23" s="69" t="str">
+      <c r="L23" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M23" s="70"/>
+      <c r="M23" s="71"/>
       <c r="N23" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -8081,11 +8078,11 @@
       <c r="I24" s="23"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="69" t="str">
+      <c r="L24" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M24" s="70"/>
+      <c r="M24" s="71"/>
       <c r="N24" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8116,11 +8113,11 @@
       <c r="I25" s="23"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="69" t="str">
+      <c r="L25" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M25" s="70"/>
+      <c r="M25" s="71"/>
       <c r="N25" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -8153,11 +8150,11 @@
         <v>0.25</v>
       </c>
       <c r="K26" s="22"/>
-      <c r="L26" s="69" t="str">
+      <c r="L26" s="70" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M26" s="70"/>
+      <c r="M26" s="71"/>
       <c r="N26" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8192,11 +8189,11 @@
       <c r="K27" s="22">
         <v>0.1</v>
       </c>
-      <c r="L27" s="69" t="str">
+      <c r="L27" s="70" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M27" s="70"/>
+      <c r="M27" s="71"/>
       <c r="N27" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8231,11 +8228,11 @@
       <c r="K28" s="22">
         <v>0.1</v>
       </c>
-      <c r="L28" s="69" t="str">
+      <c r="L28" s="70" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M28" s="70"/>
+      <c r="M28" s="71"/>
       <c r="N28" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8266,11 +8263,11 @@
       <c r="K29" s="22">
         <v>0.2</v>
       </c>
-      <c r="L29" s="69" t="str">
+      <c r="L29" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M29" s="70"/>
+      <c r="M29" s="71"/>
       <c r="N29" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -8299,11 +8296,11 @@
       <c r="I30" s="23"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="69" t="str">
+      <c r="L30" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M30" s="70"/>
+      <c r="M30" s="71"/>
       <c r="N30" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8334,11 +8331,11 @@
       <c r="I31" s="23"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="69" t="str">
+      <c r="L31" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M31" s="70"/>
+      <c r="M31" s="71"/>
       <c r="N31" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -8371,11 +8368,11 @@
       <c r="K32" s="22">
         <v>0.15</v>
       </c>
-      <c r="L32" s="69" t="str">
+      <c r="L32" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M32" s="70"/>
+      <c r="M32" s="71"/>
       <c r="N32" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -8408,11 +8405,11 @@
       <c r="K33" s="49">
         <v>0.15</v>
       </c>
-      <c r="L33" s="69" t="str">
+      <c r="L33" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M33" s="70"/>
+      <c r="M33" s="71"/>
       <c r="N33" s="44">
         <f t="shared" si="1"/>
         <v>0.3</v>
@@ -8443,11 +8440,11 @@
       <c r="K34" s="49">
         <v>0.4</v>
       </c>
-      <c r="L34" s="69" t="str">
+      <c r="L34" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M34" s="70"/>
+      <c r="M34" s="71"/>
       <c r="N34" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -8476,11 +8473,11 @@
       <c r="I35" s="50"/>
       <c r="J35" s="51"/>
       <c r="K35" s="49"/>
-      <c r="L35" s="69" t="str">
+      <c r="L35" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M35" s="70"/>
+      <c r="M35" s="71"/>
       <c r="N35" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8509,11 +8506,11 @@
       <c r="I36" s="50"/>
       <c r="J36" s="51"/>
       <c r="K36" s="49"/>
-      <c r="L36" s="69" t="str">
+      <c r="L36" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M36" s="70"/>
+      <c r="M36" s="71"/>
       <c r="N36" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8544,11 +8541,11 @@
       </c>
       <c r="J37" s="51"/>
       <c r="K37" s="49"/>
-      <c r="L37" s="69" t="str">
+      <c r="L37" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M37" s="70"/>
+      <c r="M37" s="71"/>
       <c r="N37" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -8561,10 +8558,10 @@
       </c>
     </row>
     <row r="38" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="63"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="26">
         <v>0</v>
       </c>
@@ -8598,10 +8595,10 @@
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="65"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="32">
         <f>SUM(D6:D38)</f>
         <v>15.6</v>
@@ -8636,10 +8633,10 @@
       </c>
     </row>
     <row r="40" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="67"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="39">
         <v>15.6</v>
       </c>
@@ -9634,6 +9631,36 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="L30:M30"/>
@@ -9643,36 +9670,6 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -9725,40 +9722,40 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="65" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -9787,8 +9784,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="59"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -9836,11 +9833,11 @@
       <c r="I6" s="23"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="69" t="str">
+      <c r="L6" s="70" t="str">
         <f t="shared" ref="L6:L25" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M6" s="70"/>
+      <c r="M6" s="71"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N25" si="1">SUM(E6:K6)</f>
         <v>0.25</v>
@@ -9871,11 +9868,11 @@
         <v>0.25</v>
       </c>
       <c r="K7" s="22"/>
-      <c r="L7" s="69" t="str">
+      <c r="L7" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M7" s="70"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -9906,11 +9903,11 @@
       <c r="K8" s="22">
         <v>0.2</v>
       </c>
-      <c r="L8" s="69" t="str">
+      <c r="L8" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="71"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -9943,11 +9940,11 @@
       <c r="K9" s="22">
         <v>0.2</v>
       </c>
-      <c r="L9" s="69" t="str">
+      <c r="L9" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M9" s="70"/>
+      <c r="M9" s="71"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
         <v>0.45</v>
@@ -9980,11 +9977,11 @@
         <v>0.3</v>
       </c>
       <c r="K10" s="22"/>
-      <c r="L10" s="69" t="str">
+      <c r="L10" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M10" s="70"/>
+      <c r="M10" s="71"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -10017,11 +10014,11 @@
       <c r="K11" s="22">
         <v>0.2</v>
       </c>
-      <c r="L11" s="69" t="str">
+      <c r="L11" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M11" s="70"/>
+      <c r="M11" s="71"/>
       <c r="N11" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -10050,11 +10047,11 @@
       <c r="I12" s="23"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="69" t="str">
+      <c r="L12" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M12" s="70"/>
+      <c r="M12" s="71"/>
       <c r="N12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10087,11 +10084,11 @@
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="69" t="str">
+      <c r="L13" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="44">
         <f t="shared" si="1"/>
         <v>0.35</v>
@@ -10122,11 +10119,11 @@
       <c r="K14" s="22">
         <v>0.25</v>
       </c>
-      <c r="L14" s="69" t="str">
+      <c r="L14" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M14" s="70"/>
+      <c r="M14" s="71"/>
       <c r="N14" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -10155,11 +10152,11 @@
       <c r="I15" s="23"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="69" t="str">
+      <c r="L15" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="71"/>
       <c r="N15" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10190,11 +10187,11 @@
       <c r="I16" s="23"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="69" t="str">
+      <c r="L16" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M16" s="70"/>
+      <c r="M16" s="71"/>
       <c r="N16" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -10225,11 +10222,11 @@
       <c r="K17" s="22">
         <v>0.2</v>
       </c>
-      <c r="L17" s="69" t="str">
+      <c r="L17" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M17" s="70"/>
+      <c r="M17" s="71"/>
       <c r="N17" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -10258,11 +10255,11 @@
       <c r="I18" s="23"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="69" t="str">
+      <c r="L18" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M18" s="70"/>
+      <c r="M18" s="71"/>
       <c r="N18" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10293,11 +10290,11 @@
       <c r="I19" s="23"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="69" t="str">
+      <c r="L19" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M19" s="70"/>
+      <c r="M19" s="71"/>
       <c r="N19" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -10330,11 +10327,11 @@
       <c r="K20" s="22">
         <v>0.15</v>
       </c>
-      <c r="L20" s="69" t="str">
+      <c r="L20" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M20" s="70"/>
+      <c r="M20" s="71"/>
       <c r="N20" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -10367,11 +10364,11 @@
       <c r="K21" s="49">
         <v>0.15</v>
       </c>
-      <c r="L21" s="69" t="str">
+      <c r="L21" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M21" s="70"/>
+      <c r="M21" s="71"/>
       <c r="N21" s="44">
         <f t="shared" si="1"/>
         <v>0.3</v>
@@ -10402,11 +10399,11 @@
       <c r="K22" s="49">
         <v>0.4</v>
       </c>
-      <c r="L22" s="69" t="str">
+      <c r="L22" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M22" s="70"/>
+      <c r="M22" s="71"/>
       <c r="N22" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -10435,11 +10432,11 @@
       <c r="I23" s="50"/>
       <c r="J23" s="51"/>
       <c r="K23" s="49"/>
-      <c r="L23" s="69" t="str">
+      <c r="L23" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M23" s="70"/>
+      <c r="M23" s="71"/>
       <c r="N23" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10468,11 +10465,11 @@
       <c r="I24" s="50"/>
       <c r="J24" s="51"/>
       <c r="K24" s="49"/>
-      <c r="L24" s="69" t="str">
+      <c r="L24" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M24" s="70"/>
+      <c r="M24" s="71"/>
       <c r="N24" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10503,11 +10500,11 @@
       </c>
       <c r="J25" s="51"/>
       <c r="K25" s="49"/>
-      <c r="L25" s="69" t="str">
+      <c r="L25" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M25" s="70"/>
+      <c r="M25" s="71"/>
       <c r="N25" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -10520,10 +10517,10 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="26">
         <v>0</v>
       </c>
@@ -10557,10 +10554,10 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="32">
         <f>SUM(D6:D26)</f>
         <v>10</v>
@@ -10595,10 +10592,10 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="67"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="39">
         <v>15.6</v>
       </c>
@@ -11593,14 +11590,16 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L25:M25"/>
@@ -11610,16 +11609,14 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L25">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
@@ -11657,10 +11654,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF431CF1-8E16-45D5-A381-7331DD95E65F}">
-  <dimension ref="B1:P975"/>
+  <dimension ref="B1:P974"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11674,40 +11671,40 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="B2" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="65" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -11736,8 +11733,8 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="59"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -11780,19 +11777,19 @@
       <c r="I6" s="23"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="69" t="str">
-        <f t="shared" ref="L6:L12" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
+      <c r="L6" s="70" t="str">
+        <f t="shared" ref="L6:L11" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>NOT STARTED</v>
       </c>
-      <c r="M6" s="70"/>
+      <c r="M6" s="71"/>
       <c r="N6" s="44">
-        <f t="shared" ref="N6:N12" si="1">SUM(E6:K6)</f>
+        <f t="shared" ref="N6:N11" si="1">SUM(E6:K6)</f>
         <v>0</v>
       </c>
       <c r="O6" s="44"/>
       <c r="P6" s="44"/>
     </row>
-    <row r="7" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="19">
         <v>24</v>
       </c>
@@ -11809,11 +11806,11 @@
       <c r="I7" s="23"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="69" t="str">
+      <c r="L7" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M7" s="70"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11823,13 +11820,13 @@
     </row>
     <row r="8" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3</v>
+        <v>82</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="22"/>
@@ -11838,11 +11835,11 @@
       <c r="I8" s="23"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="69" t="str">
+      <c r="L8" s="70" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="71"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11850,234 +11847,214 @@
       <c r="O8" s="44"/>
       <c r="P8" s="44"/>
     </row>
-    <row r="9" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D9" s="20">
         <v>2</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25">
+        <v>2</v>
+      </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="69" t="str">
+      <c r="L9" s="70" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M9" s="70"/>
+        <v>DONE</v>
+      </c>
+      <c r="M9" s="71"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="44"/>
       <c r="P9" s="44"/>
     </row>
-    <row r="10" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19">
-        <v>27</v>
-      </c>
-      <c r="C10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="20">
-        <v>2</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="14">
+        <v>3</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="69" t="str">
+      <c r="L10" s="70" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M10" s="70"/>
+        <v>NOT ENOUGH WORK YET</v>
+      </c>
+      <c r="M10" s="71"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="44"/>
       <c r="P10" s="44"/>
     </row>
-    <row r="11" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="19">
-        <v>28</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="14">
+        <v>29</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="20">
         <v>2</v>
       </c>
       <c r="E11" s="25"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="23"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="69" t="str">
+      <c r="L11" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M11" s="70"/>
+        <v>NOT ENOUGH WORK YET</v>
+      </c>
+      <c r="M11" s="73"/>
       <c r="N11" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="44"/>
       <c r="P11" s="44"/>
     </row>
-    <row r="12" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19">
-        <v>29</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="20">
+    <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" ref="E12:K12" si="2">SUM(E6:E11)</f>
+        <v>3</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M12" s="73"/>
-      <c r="N12" s="44">
-        <f t="shared" si="1"/>
+      <c r="G12" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
+      <c r="H12" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="26">
+      <c r="B13" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="32">
+        <f>SUM(D6:D12)</f>
+        <v>15</v>
+      </c>
+      <c r="E13" s="33">
+        <f>D13-SUM(E6:E11)</f>
+        <v>12</v>
+      </c>
+      <c r="F13" s="34">
+        <f>E13-SUM(F6:F11)</f>
+        <v>10</v>
+      </c>
+      <c r="G13" s="34">
+        <f>F13-SUM(G6:G11)</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="34">
+        <f>G13-SUM(H6:H11)</f>
+        <v>10</v>
+      </c>
+      <c r="I13" s="35">
+        <f>H13-SUM(I6:I11)</f>
+        <v>10</v>
+      </c>
+      <c r="J13" s="36">
+        <f>I13-SUM(J6:J11)</f>
+        <v>10</v>
+      </c>
+      <c r="K13" s="36">
+        <f>J13-SUM(K6:K11)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="39">
+        <v>15.6</v>
+      </c>
+      <c r="E14" s="40">
+        <f>$D$14-($D$14/7*1)</f>
+        <v>13.37142857142857</v>
+      </c>
+      <c r="F14" s="40">
+        <f>$D$14-($D$14/7*2)</f>
+        <v>11.142857142857142</v>
+      </c>
+      <c r="G14" s="40">
+        <f>$D$14-($D$14/7*3)</f>
+        <v>8.9142857142857146</v>
+      </c>
+      <c r="H14" s="40">
+        <f>$D$14-($D$14/7*4)</f>
+        <v>6.6857142857142851</v>
+      </c>
+      <c r="I14" s="41">
+        <f>$D$14-($D$14/7*5)</f>
+        <v>4.4571428571428573</v>
+      </c>
+      <c r="J14" s="41">
+        <f>$D$14-($D$14/7*6)</f>
+        <v>2.2285714285714278</v>
+      </c>
+      <c r="K14" s="40">
+        <f>$D$14-($D$14/7*7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="27">
-        <f>SUM(E6:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="28">
-        <f>SUM(F6:F12)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="28">
-        <f>SUM(G6:G12)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="28">
-        <f>SUM(H6:H12)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="29">
-        <f>SUM(I6:I12)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="30">
-        <f>SUM(J6:J12)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="28">
-        <f>SUM(K6:K12)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="32">
-        <f>SUM(D6:D13)</f>
-        <v>17</v>
-      </c>
-      <c r="E14" s="33">
-        <f>D14-SUM(E6:E12)</f>
-        <v>17</v>
-      </c>
-      <c r="F14" s="34">
-        <f>E14-SUM(F6:F12)</f>
-        <v>17</v>
-      </c>
-      <c r="G14" s="34">
-        <f>F14-SUM(G6:G12)</f>
-        <v>17</v>
-      </c>
-      <c r="H14" s="34">
-        <f>G14-SUM(H6:H12)</f>
-        <v>17</v>
-      </c>
-      <c r="I14" s="35">
-        <f>H14-SUM(I6:I12)</f>
-        <v>17</v>
-      </c>
-      <c r="J14" s="36">
-        <f>I14-SUM(J6:J12)</f>
-        <v>17</v>
-      </c>
-      <c r="K14" s="36">
-        <f>J14-SUM(K6:K12)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="39">
-        <v>15.6</v>
-      </c>
-      <c r="E15" s="40">
-        <f>$D$15-($D$15/7*1)</f>
-        <v>13.37142857142857</v>
-      </c>
-      <c r="F15" s="40">
-        <f>$D$15-($D$15/7*2)</f>
-        <v>11.142857142857142</v>
-      </c>
-      <c r="G15" s="40">
-        <f>$D$15-($D$15/7*3)</f>
-        <v>8.9142857142857146</v>
-      </c>
-      <c r="H15" s="40">
-        <f>$D$15-($D$15/7*4)</f>
-        <v>6.6857142857142851</v>
-      </c>
-      <c r="I15" s="41">
-        <f>$D$15-($D$15/7*5)</f>
-        <v>4.4571428571428573</v>
-      </c>
-      <c r="J15" s="41">
-        <f>$D$15-($D$15/7*6)</f>
-        <v>2.2285714285714278</v>
-      </c>
-      <c r="K15" s="40">
-        <f>$D$15-($D$15/7*7)</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="15" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12277,7 +12254,7 @@
     <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13037,30 +13014,28 @@
     <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
+  <mergeCells count="13">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
   </mergeCells>
-  <conditionalFormatting sqref="L6:L12">
+  <conditionalFormatting sqref="L6:L11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:M12">
+  <conditionalFormatting sqref="L6:M11">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"NOT ENOUGH WORK YET"</formula>
     </cfRule>
@@ -13071,7 +13046,7 @@
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:N12">
+  <conditionalFormatting sqref="N7:N11">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/SE202526/Management/Sprint5/burndown/Sprint5_Burndown.xlsx
+++ b/SE202526/Management/Sprint5/burndown/Sprint5_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\UNI\y3\ES\Proj\SE2526_67775_67804_67286_68130_68547_67763\SE202526\Management\Sprint5\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC9B9DD-4F0F-4384-81B7-20381E2BFC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6953F53B-97AD-4B23-99D1-E1134181BA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3571,13 +3571,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3696,25 +3696,25 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9631,36 +9631,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="L30:M30"/>
@@ -9670,6 +9640,36 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -11590,16 +11590,14 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L25:M25"/>
@@ -11609,14 +11607,16 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L25">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
@@ -11656,8 +11656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF431CF1-8E16-45D5-A381-7331DD95E65F}">
   <dimension ref="B1:P974"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J6" sqref="H6:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11828,21 +11828,25 @@
       <c r="D8" s="20">
         <v>2</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="25">
+        <v>0.5</v>
+      </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="22">
+        <v>0.5</v>
+      </c>
       <c r="H8" s="22"/>
       <c r="I8" s="23"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="70" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
+        <v>NOT ENOUGH WORK YET</v>
       </c>
       <c r="M8" s="71"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="44"/>
       <c r="P8" s="44"/>
@@ -11894,19 +11898,21 @@
       <c r="F10" s="22">
         <v>1</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
       <c r="L10" s="70" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M10" s="71"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" s="44"/>
       <c r="P10" s="44"/>
@@ -11925,19 +11931,21 @@
       <c r="F11" s="22">
         <v>1</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="72" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M11" s="73"/>
       <c r="N11" s="44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" s="44"/>
       <c r="P11" s="44"/>
@@ -11952,7 +11960,7 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" ref="E12:K12" si="2">SUM(E6:E11)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F12" s="28">
         <f t="shared" si="2"/>
@@ -11960,7 +11968,7 @@
       </c>
       <c r="G12" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H12" s="28">
         <f t="shared" si="2"/>
@@ -11989,32 +11997,32 @@
         <v>15</v>
       </c>
       <c r="E13" s="33">
-        <f>D13-SUM(E6:E11)</f>
-        <v>12</v>
+        <f t="shared" ref="E13:K13" si="3">D13-SUM(E6:E11)</f>
+        <v>11.5</v>
       </c>
       <c r="F13" s="34">
-        <f>E13-SUM(F6:F11)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>9.5</v>
       </c>
       <c r="G13" s="34">
-        <f>F13-SUM(G6:G11)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="H13" s="34">
-        <f>G13-SUM(H6:H11)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="I13" s="35">
-        <f>H13-SUM(I6:I11)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="J13" s="36">
-        <f>I13-SUM(J6:J11)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="K13" s="36">
-        <f>J13-SUM(K6:K11)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -13016,11 +13024,6 @@
     <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -13029,6 +13032,11 @@
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/SE202526/Management/Sprint5/burndown/Sprint5_Burndown.xlsx
+++ b/SE202526/Management/Sprint5/burndown/Sprint5_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\UNI\y3\ES\Proj\SE2526_67775_67804_67286_68130_68547_67763\SE202526\Management\Sprint5\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6953F53B-97AD-4B23-99D1-E1134181BA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D562AE24-587C-4307-990F-406FDB0981F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="86">
   <si>
     <t>Sprint 1 Burndown Chart</t>
   </si>
@@ -375,6 +375,12 @@
   <si>
     <t>T26: identify areas of code relating to leaks.</t>
   </si>
+  <si>
+    <t>T30: Look into relevant code for implementing US4 (copy and its history)</t>
+  </si>
+  <si>
+    <t>T29: Look into relevant code for implementing US3 (turret targeting)</t>
+  </si>
 </sst>
 </file>
 
@@ -518,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1031,11 +1037,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1222,11 +1239,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3563,7 +3607,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint5'!$D$12:$K$12</c:f>
+              <c:f>'Burndown Chart Sprint5'!$D$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3577,10 +3621,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3688,33 +3732,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint5'!$D$13:$K$13</c:f>
+              <c:f>'Burndown Chart Sprint5'!$D$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>15</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>12.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3775,7 +3819,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint5'!$D$14:$K$14</c:f>
+              <c:f>'Burndown Chart Sprint5'!$D$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4134,7 +4178,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9639300" cy="4886325"/>
@@ -7293,8 +7337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9631,6 +9675,36 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="L30:M30"/>
@@ -9640,50 +9714,20 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M37">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"NOT ENOUGH WORK YET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"ERROR TO MUCH WORK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9709,7 +9753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P988"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11590,14 +11636,16 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L25:M25"/>
@@ -11607,30 +11655,28 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L25">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M25">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"NOT ENOUGH WORK YET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"ERROR TO MUCH WORK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11654,10 +11700,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF431CF1-8E16-45D5-A381-7331DD95E65F}">
-  <dimension ref="B1:P974"/>
+  <dimension ref="B1:P976"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J6" sqref="H6:J9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11768,23 +11814,27 @@
         <v>77</v>
       </c>
       <c r="D6" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.5</v>
+      </c>
       <c r="I6" s="23"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
       <c r="L6" s="70" t="str">
-        <f t="shared" ref="L6:L11" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
+        <f t="shared" ref="L6:L10" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
+        <v>NOT ENOUGH WORK YET</v>
       </c>
       <c r="M6" s="71"/>
       <c r="N6" s="44">
-        <f t="shared" ref="N6:N11" si="1">SUM(E6:K6)</f>
-        <v>0</v>
+        <f t="shared" ref="N6:N10" si="1">SUM(E6:K6)</f>
+        <v>1</v>
       </c>
       <c r="O6" s="44"/>
       <c r="P6" s="44"/>
@@ -11797,30 +11847,34 @@
         <v>78</v>
       </c>
       <c r="D7" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="G7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.5</v>
+      </c>
       <c r="I7" s="23"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="70" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
+        <v>NOT ENOUGH WORK YET</v>
       </c>
       <c r="M7" s="71"/>
       <c r="N7" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
     </row>
     <row r="8" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>82</v>
@@ -11835,25 +11889,27 @@
       <c r="G8" s="22">
         <v>0.5</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
       <c r="I8" s="23"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="70" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M8" s="71"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" s="44"/>
       <c r="P8" s="44"/>
     </row>
     <row r="9" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>83</v>
@@ -11884,7 +11940,7 @@
     </row>
     <row r="10" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>81</v>
@@ -11917,9 +11973,9 @@
       <c r="O10" s="44"/>
       <c r="P10" s="44"/>
     </row>
-    <row r="11" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>80</v>
@@ -11939,131 +11995,187 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="72" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(N11=0, "NOT STARTED",IF(N11&gt;D11, "ERROR TO MUCH WORK", IF(N11=D11, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
       <c r="M11" s="73"/>
       <c r="N11" s="44">
-        <f t="shared" si="1"/>
+        <f>SUM(E11:K11)</f>
         <v>2</v>
       </c>
       <c r="O11" s="44"/>
       <c r="P11" s="44"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="19">
+        <v>29</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="74">
+        <v>1.6</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="70" t="str">
+        <f t="shared" ref="L12:L13" si="2">IF(N12=0, "NOT STARTED",IF(N12&gt;D12, "ERROR TO MUCH WORK", IF(N12=D12, "DONE", "NOT ENOUGH WORK YET")))</f>
+        <v>NOT STARTED</v>
+      </c>
+      <c r="M12" s="71"/>
+      <c r="N12" s="44">
+        <f t="shared" ref="N12:N13" si="3">SUM(E12:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+    </row>
+    <row r="13" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="19">
+        <v>30</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="74">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="72" t="str">
+        <f>IF(N13=0, "NOT STARTED",IF(N13&gt;D13, "ERROR TO MUCH WORK", IF(N13=D13, "DONE", "NOT ENOUGH WORK YET")))</f>
+        <v>NOT STARTED</v>
+      </c>
+      <c r="M13" s="73"/>
+      <c r="N13" s="44">
+        <f>SUM(E13:K13)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+    </row>
+    <row r="14" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="26">
+      <c r="C14" s="68"/>
+      <c r="D14" s="26">
         <v>0</v>
       </c>
-      <c r="E12" s="27">
-        <f t="shared" ref="E12:K12" si="2">SUM(E6:E11)</f>
+      <c r="E14" s="27">
+        <f>SUM(E6:E13)</f>
         <v>3.5</v>
       </c>
-      <c r="F12" s="28">
-        <f t="shared" si="2"/>
+      <c r="F14" s="28">
+        <f>SUM(F6:F13)</f>
         <v>2</v>
       </c>
-      <c r="G12" s="28">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="H12" s="28">
-        <f t="shared" si="2"/>
+      <c r="G14" s="28">
+        <f>SUM(G6:G13)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H14" s="28">
+        <f>SUM(H6:H13)</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="29">
+        <f>SUM(I6:I13)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="29">
-        <f t="shared" si="2"/>
+      <c r="J14" s="30">
+        <f>SUM(J6:J13)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="30">
-        <f t="shared" si="2"/>
+      <c r="K14" s="28">
+        <f>SUM(K6:K13)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="28">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="15" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="32">
+        <f>SUM(D6:D14)</f>
+        <v>15.6</v>
+      </c>
+      <c r="E15" s="33">
+        <f>D15-SUM(E6:E13)</f>
+        <v>12.1</v>
+      </c>
+      <c r="F15" s="34">
+        <f>E15-SUM(F6:F13)</f>
+        <v>10.1</v>
+      </c>
+      <c r="G15" s="34">
+        <f>F15-SUM(G6:G13)</f>
+        <v>6.6</v>
+      </c>
+      <c r="H15" s="34">
+        <f>G15-SUM(H6:H13)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I15" s="35">
+        <f>H15-SUM(I6:I13)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J15" s="36">
+        <f>I15-SUM(J6:J13)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K15" s="36">
+        <f>J15-SUM(K6:K13)</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="39">
+        <v>15.6</v>
+      </c>
+      <c r="E16" s="40">
+        <f>$D$16-($D$16/7*1)</f>
+        <v>13.37142857142857</v>
+      </c>
+      <c r="F16" s="40">
+        <f>$D$16-($D$16/7*2)</f>
+        <v>11.142857142857142</v>
+      </c>
+      <c r="G16" s="40">
+        <f>$D$16-($D$16/7*3)</f>
+        <v>8.9142857142857146</v>
+      </c>
+      <c r="H16" s="40">
+        <f>$D$16-($D$16/7*4)</f>
+        <v>6.6857142857142851</v>
+      </c>
+      <c r="I16" s="41">
+        <f>$D$16-($D$16/7*5)</f>
+        <v>4.4571428571428573</v>
+      </c>
+      <c r="J16" s="41">
+        <f>$D$16-($D$16/7*6)</f>
+        <v>2.2285714285714278</v>
+      </c>
+      <c r="K16" s="40">
+        <f>$D$16-($D$16/7*7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="32">
-        <f>SUM(D6:D12)</f>
-        <v>15</v>
-      </c>
-      <c r="E13" s="33">
-        <f t="shared" ref="E13:K13" si="3">D13-SUM(E6:E11)</f>
-        <v>11.5</v>
-      </c>
-      <c r="F13" s="34">
-        <f t="shared" si="3"/>
-        <v>9.5</v>
-      </c>
-      <c r="G13" s="34">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="H13" s="34">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="I13" s="35">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="J13" s="36">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="K13" s="36">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="39">
-        <v>15.6</v>
-      </c>
-      <c r="E14" s="40">
-        <f>$D$14-($D$14/7*1)</f>
-        <v>13.37142857142857</v>
-      </c>
-      <c r="F14" s="40">
-        <f>$D$14-($D$14/7*2)</f>
-        <v>11.142857142857142</v>
-      </c>
-      <c r="G14" s="40">
-        <f>$D$14-($D$14/7*3)</f>
-        <v>8.9142857142857146</v>
-      </c>
-      <c r="H14" s="40">
-        <f>$D$14-($D$14/7*4)</f>
-        <v>6.6857142857142851</v>
-      </c>
-      <c r="I14" s="41">
-        <f>$D$14-($D$14/7*5)</f>
-        <v>4.4571428571428573</v>
-      </c>
-      <c r="J14" s="41">
-        <f>$D$14-($D$14/7*6)</f>
-        <v>2.2285714285714278</v>
-      </c>
-      <c r="K14" s="40">
-        <f>$D$14-($D$14/7*7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12262,8 +12374,8 @@
     <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13022,40 +13134,44 @@
     <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
   </mergeCells>
-  <conditionalFormatting sqref="L6:L11">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="L6:L13">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:M11">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="L6:M13">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"NOT ENOUGH WORK YET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"ERROR TO MUCH WORK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:N11">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="N7:N13">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="percentile" val="0.25"/>

--- a/SE202526/Management/Sprint5/burndown/Sprint5_Burndown.xlsx
+++ b/SE202526/Management/Sprint5/burndown/Sprint5_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\UNI\y3\ES\Proj\SE2526_67775_67804_67286_68130_68547_67763\SE202526\Management\Sprint5\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D562AE24-587C-4307-990F-406FDB0981F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1312AC4E-806E-42DD-B80A-3160C9CCDA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,6 +1203,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1239,38 +1242,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3618,16 +3594,16 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.5999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3743,22 +3719,22 @@
                   <c:v>12.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.1</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>3.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>3.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>3.8000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4426,50 +4402,50 @@
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -4514,8 +4490,8 @@
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4736,10 +4712,10 @@
       <c r="P11" s="24"/>
     </row>
     <row r="12" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="26">
         <v>0</v>
       </c>
@@ -4793,10 +4769,10 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="32">
         <f>SUM(D6:D12)</f>
         <v>14</v>
@@ -4851,10 +4827,10 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="39">
         <f>D13</f>
         <v>14</v>
@@ -5928,40 +5904,40 @@
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -5991,8 +5967,8 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -6222,10 +6198,10 @@
       <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="26">
         <v>0</v>
       </c>
@@ -6259,10 +6235,10 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="32">
         <f>SUM(D6:D15)</f>
         <v>6.5</v>
@@ -6297,10 +6273,10 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="39">
         <f>D16</f>
         <v>6.5</v>
@@ -7352,40 +7328,40 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -7414,8 +7390,8 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -7460,11 +7436,11 @@
         <v>0.1</v>
       </c>
       <c r="K6" s="16"/>
-      <c r="L6" s="70" t="str">
+      <c r="L6" s="71" t="str">
         <f t="shared" ref="L6:L37" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M6" s="71"/>
+      <c r="M6" s="72"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N37" si="1">SUM(E6:K6)</f>
         <v>0.1</v>
@@ -7495,11 +7471,11 @@
       <c r="I7" s="23"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="70" t="str">
+      <c r="L7" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M7" s="71"/>
+      <c r="M7" s="72"/>
       <c r="N7" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -7534,11 +7510,11 @@
       <c r="K8" s="22">
         <v>0.15</v>
       </c>
-      <c r="L8" s="70" t="str">
+      <c r="L8" s="71" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M8" s="71"/>
+      <c r="M8" s="72"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -7571,11 +7547,11 @@
         <v>0.25</v>
       </c>
       <c r="K9" s="22"/>
-      <c r="L9" s="70" t="str">
+      <c r="L9" s="71" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M9" s="71"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -7608,11 +7584,11 @@
         <v>0.25</v>
       </c>
       <c r="K10" s="22"/>
-      <c r="L10" s="70" t="str">
+      <c r="L10" s="71" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M10" s="71"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -7645,11 +7621,11 @@
       <c r="K11" s="22">
         <v>0.25</v>
       </c>
-      <c r="L11" s="70" t="str">
+      <c r="L11" s="71" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M11" s="71"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -7680,11 +7656,11 @@
         <v>0.25</v>
       </c>
       <c r="K12" s="22"/>
-      <c r="L12" s="70" t="str">
+      <c r="L12" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -7717,11 +7693,11 @@
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="70" t="str">
+      <c r="L13" s="71" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -7752,11 +7728,11 @@
       <c r="K14" s="22">
         <v>0.2</v>
       </c>
-      <c r="L14" s="70" t="str">
+      <c r="L14" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -7789,11 +7765,11 @@
       <c r="K15" s="22">
         <v>0.2</v>
       </c>
-      <c r="L15" s="70" t="str">
+      <c r="L15" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="44">
         <f t="shared" si="1"/>
         <v>0.45</v>
@@ -7826,11 +7802,11 @@
         <v>0.3</v>
       </c>
       <c r="K16" s="22"/>
-      <c r="L16" s="70" t="str">
+      <c r="L16" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -7863,11 +7839,11 @@
       <c r="K17" s="22">
         <v>0.2</v>
       </c>
-      <c r="L17" s="70" t="str">
+      <c r="L17" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -7896,11 +7872,11 @@
       <c r="I18" s="23"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="70" t="str">
+      <c r="L18" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7933,11 +7909,11 @@
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="70" t="str">
+      <c r="L19" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="44">
         <f t="shared" si="1"/>
         <v>0.35</v>
@@ -7974,11 +7950,11 @@
       <c r="K20" s="22">
         <v>0.2</v>
       </c>
-      <c r="L20" s="70" t="str">
+      <c r="L20" s="71" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8013,11 +7989,11 @@
       <c r="K21" s="22">
         <v>0.2</v>
       </c>
-      <c r="L21" s="70" t="str">
+      <c r="L21" s="71" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8054,11 +8030,11 @@
       <c r="K22" s="22">
         <v>0.2</v>
       </c>
-      <c r="L22" s="70" t="str">
+      <c r="L22" s="71" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M22" s="71"/>
+      <c r="M22" s="72"/>
       <c r="N22" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8089,11 +8065,11 @@
       <c r="K23" s="22">
         <v>0.25</v>
       </c>
-      <c r="L23" s="70" t="str">
+      <c r="L23" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M23" s="71"/>
+      <c r="M23" s="72"/>
       <c r="N23" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -8122,11 +8098,11 @@
       <c r="I24" s="23"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="70" t="str">
+      <c r="L24" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M24" s="71"/>
+      <c r="M24" s="72"/>
       <c r="N24" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8157,11 +8133,11 @@
       <c r="I25" s="23"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="70" t="str">
+      <c r="L25" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M25" s="71"/>
+      <c r="M25" s="72"/>
       <c r="N25" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -8194,11 +8170,11 @@
         <v>0.25</v>
       </c>
       <c r="K26" s="22"/>
-      <c r="L26" s="70" t="str">
+      <c r="L26" s="71" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M26" s="71"/>
+      <c r="M26" s="72"/>
       <c r="N26" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8233,11 +8209,11 @@
       <c r="K27" s="22">
         <v>0.1</v>
       </c>
-      <c r="L27" s="70" t="str">
+      <c r="L27" s="71" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M27" s="71"/>
+      <c r="M27" s="72"/>
       <c r="N27" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8272,11 +8248,11 @@
       <c r="K28" s="22">
         <v>0.1</v>
       </c>
-      <c r="L28" s="70" t="str">
+      <c r="L28" s="71" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M28" s="71"/>
+      <c r="M28" s="72"/>
       <c r="N28" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8307,11 +8283,11 @@
       <c r="K29" s="22">
         <v>0.2</v>
       </c>
-      <c r="L29" s="70" t="str">
+      <c r="L29" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M29" s="71"/>
+      <c r="M29" s="72"/>
       <c r="N29" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -8340,11 +8316,11 @@
       <c r="I30" s="23"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="70" t="str">
+      <c r="L30" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M30" s="71"/>
+      <c r="M30" s="72"/>
       <c r="N30" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8375,11 +8351,11 @@
       <c r="I31" s="23"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="70" t="str">
+      <c r="L31" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M31" s="71"/>
+      <c r="M31" s="72"/>
       <c r="N31" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -8412,11 +8388,11 @@
       <c r="K32" s="22">
         <v>0.15</v>
       </c>
-      <c r="L32" s="70" t="str">
+      <c r="L32" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M32" s="71"/>
+      <c r="M32" s="72"/>
       <c r="N32" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -8449,11 +8425,11 @@
       <c r="K33" s="49">
         <v>0.15</v>
       </c>
-      <c r="L33" s="70" t="str">
+      <c r="L33" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M33" s="71"/>
+      <c r="M33" s="72"/>
       <c r="N33" s="44">
         <f t="shared" si="1"/>
         <v>0.3</v>
@@ -8484,11 +8460,11 @@
       <c r="K34" s="49">
         <v>0.4</v>
       </c>
-      <c r="L34" s="70" t="str">
+      <c r="L34" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M34" s="71"/>
+      <c r="M34" s="72"/>
       <c r="N34" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -8517,11 +8493,11 @@
       <c r="I35" s="50"/>
       <c r="J35" s="51"/>
       <c r="K35" s="49"/>
-      <c r="L35" s="70" t="str">
+      <c r="L35" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M35" s="71"/>
+      <c r="M35" s="72"/>
       <c r="N35" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8550,11 +8526,11 @@
       <c r="I36" s="50"/>
       <c r="J36" s="51"/>
       <c r="K36" s="49"/>
-      <c r="L36" s="70" t="str">
+      <c r="L36" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M36" s="71"/>
+      <c r="M36" s="72"/>
       <c r="N36" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8585,11 +8561,11 @@
       </c>
       <c r="J37" s="51"/>
       <c r="K37" s="49"/>
-      <c r="L37" s="70" t="str">
+      <c r="L37" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M37" s="71"/>
+      <c r="M37" s="72"/>
       <c r="N37" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -8602,10 +8578,10 @@
       </c>
     </row>
     <row r="38" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="68"/>
+      <c r="C38" s="69"/>
       <c r="D38" s="26">
         <v>0</v>
       </c>
@@ -8639,10 +8615,10 @@
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="55"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="32">
         <f>SUM(D6:D38)</f>
         <v>15.6</v>
@@ -8677,10 +8653,10 @@
       </c>
     </row>
     <row r="40" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="57"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="39">
         <v>15.6</v>
       </c>
@@ -9675,36 +9651,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="L30:M30"/>
@@ -9714,20 +9660,50 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M37">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"NOT ENOUGH WORK YET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"ERROR TO MUCH WORK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9768,40 +9744,40 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -9830,8 +9806,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -9879,11 +9855,11 @@
       <c r="I6" s="23"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="70" t="str">
+      <c r="L6" s="71" t="str">
         <f t="shared" ref="L6:L25" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M6" s="71"/>
+      <c r="M6" s="72"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N25" si="1">SUM(E6:K6)</f>
         <v>0.25</v>
@@ -9914,11 +9890,11 @@
         <v>0.25</v>
       </c>
       <c r="K7" s="22"/>
-      <c r="L7" s="70" t="str">
+      <c r="L7" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M7" s="71"/>
+      <c r="M7" s="72"/>
       <c r="N7" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -9949,11 +9925,11 @@
       <c r="K8" s="22">
         <v>0.2</v>
       </c>
-      <c r="L8" s="70" t="str">
+      <c r="L8" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M8" s="71"/>
+      <c r="M8" s="72"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -9986,11 +9962,11 @@
       <c r="K9" s="22">
         <v>0.2</v>
       </c>
-      <c r="L9" s="70" t="str">
+      <c r="L9" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M9" s="71"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
         <v>0.45</v>
@@ -10023,11 +9999,11 @@
         <v>0.3</v>
       </c>
       <c r="K10" s="22"/>
-      <c r="L10" s="70" t="str">
+      <c r="L10" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M10" s="71"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -10060,11 +10036,11 @@
       <c r="K11" s="22">
         <v>0.2</v>
       </c>
-      <c r="L11" s="70" t="str">
+      <c r="L11" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M11" s="71"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -10093,11 +10069,11 @@
       <c r="I12" s="23"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="70" t="str">
+      <c r="L12" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10130,11 +10106,11 @@
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="70" t="str">
+      <c r="L13" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="44">
         <f t="shared" si="1"/>
         <v>0.35</v>
@@ -10165,11 +10141,11 @@
       <c r="K14" s="22">
         <v>0.25</v>
       </c>
-      <c r="L14" s="70" t="str">
+      <c r="L14" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -10198,11 +10174,11 @@
       <c r="I15" s="23"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="70" t="str">
+      <c r="L15" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10233,11 +10209,11 @@
       <c r="I16" s="23"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="70" t="str">
+      <c r="L16" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -10268,11 +10244,11 @@
       <c r="K17" s="22">
         <v>0.2</v>
       </c>
-      <c r="L17" s="70" t="str">
+      <c r="L17" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -10301,11 +10277,11 @@
       <c r="I18" s="23"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="70" t="str">
+      <c r="L18" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10336,11 +10312,11 @@
       <c r="I19" s="23"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="70" t="str">
+      <c r="L19" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -10373,11 +10349,11 @@
       <c r="K20" s="22">
         <v>0.15</v>
       </c>
-      <c r="L20" s="70" t="str">
+      <c r="L20" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -10410,11 +10386,11 @@
       <c r="K21" s="49">
         <v>0.15</v>
       </c>
-      <c r="L21" s="70" t="str">
+      <c r="L21" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="44">
         <f t="shared" si="1"/>
         <v>0.3</v>
@@ -10445,11 +10421,11 @@
       <c r="K22" s="49">
         <v>0.4</v>
       </c>
-      <c r="L22" s="70" t="str">
+      <c r="L22" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M22" s="71"/>
+      <c r="M22" s="72"/>
       <c r="N22" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -10478,11 +10454,11 @@
       <c r="I23" s="50"/>
       <c r="J23" s="51"/>
       <c r="K23" s="49"/>
-      <c r="L23" s="70" t="str">
+      <c r="L23" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M23" s="71"/>
+      <c r="M23" s="72"/>
       <c r="N23" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10511,11 +10487,11 @@
       <c r="I24" s="50"/>
       <c r="J24" s="51"/>
       <c r="K24" s="49"/>
-      <c r="L24" s="70" t="str">
+      <c r="L24" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M24" s="71"/>
+      <c r="M24" s="72"/>
       <c r="N24" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10546,11 +10522,11 @@
       </c>
       <c r="J25" s="51"/>
       <c r="K25" s="49"/>
-      <c r="L25" s="70" t="str">
+      <c r="L25" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M25" s="71"/>
+      <c r="M25" s="72"/>
       <c r="N25" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -10563,10 +10539,10 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="26">
         <v>0</v>
       </c>
@@ -10600,10 +10576,10 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="55"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="32">
         <f>SUM(D6:D26)</f>
         <v>10</v>
@@ -10638,10 +10614,10 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="57"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="39">
         <v>15.6</v>
       </c>
@@ -11636,16 +11612,14 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L25:M25"/>
@@ -11655,28 +11629,30 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L25">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M25">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"NOT ENOUGH WORK YET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"ERROR TO MUCH WORK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11702,8 +11678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF431CF1-8E16-45D5-A381-7331DD95E65F}">
   <dimension ref="B1:P976"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11717,40 +11693,40 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -11779,8 +11755,8 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="64"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -11824,17 +11800,19 @@
       <c r="H6" s="22">
         <v>0.5</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="23">
+        <v>0.5</v>
+      </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="70" t="str">
+      <c r="L6" s="71" t="str">
         <f t="shared" ref="L6:L10" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M6" s="71"/>
+      <c r="M6" s="72"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N10" si="1">SUM(E6:K6)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O6" s="44"/>
       <c r="P6" s="44"/>
@@ -11857,17 +11835,19 @@
       <c r="H7" s="22">
         <v>0.5</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="23">
+        <v>0.5</v>
+      </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="70" t="str">
+      <c r="L7" s="71" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M7" s="71"/>
+      <c r="M7" s="72"/>
       <c r="N7" s="44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
@@ -11890,19 +11870,21 @@
         <v>0.5</v>
       </c>
       <c r="H8" s="22">
-        <v>1</v>
-      </c>
-      <c r="I8" s="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.4</v>
+      </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="70" t="str">
+      <c r="L8" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>DONE</v>
-      </c>
-      <c r="M8" s="71"/>
+        <v>NOT ENOUGH WORK YET</v>
+      </c>
+      <c r="M8" s="72"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O8" s="44"/>
       <c r="P8" s="44"/>
@@ -11926,11 +11908,11 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="70" t="str">
+      <c r="L9" s="71" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M9" s="71"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -11961,11 +11943,11 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="70" t="str">
+      <c r="L10" s="71" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M10" s="71"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11985,23 +11967,27 @@
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="22">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0.2</v>
+      </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="72" t="str">
+      <c r="L11" s="73" t="str">
         <f>IF(N11=0, "NOT STARTED",IF(N11&gt;D11, "ERROR TO MUCH WORK", IF(N11=D11, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>DONE</v>
-      </c>
-      <c r="M11" s="73"/>
+        <v>NOT ENOUGH WORK YET</v>
+      </c>
+      <c r="M11" s="74"/>
       <c r="N11" s="44">
         <f>SUM(E11:K11)</f>
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O11" s="44"/>
       <c r="P11" s="44"/>
@@ -12013,7 +11999,7 @@
       <c r="C12" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="54">
         <v>1.6</v>
       </c>
       <c r="E12" s="25"/>
@@ -12023,13 +12009,13 @@
       <c r="I12" s="23"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="70" t="str">
-        <f t="shared" ref="L12:L13" si="2">IF(N12=0, "NOT STARTED",IF(N12&gt;D12, "ERROR TO MUCH WORK", IF(N12=D12, "DONE", "NOT ENOUGH WORK YET")))</f>
+      <c r="L12" s="71" t="str">
+        <f t="shared" ref="L12" si="2">IF(N12=0, "NOT STARTED",IF(N12&gt;D12, "ERROR TO MUCH WORK", IF(N12=D12, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>NOT STARTED</v>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="44">
-        <f t="shared" ref="N12:N13" si="3">SUM(E12:K12)</f>
+        <f t="shared" ref="N12" si="3">SUM(E12:K12)</f>
         <v>0</v>
       </c>
       <c r="O12" s="44"/>
@@ -12042,7 +12028,7 @@
       <c r="C13" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="54">
         <v>1</v>
       </c>
       <c r="E13" s="25"/>
@@ -12052,11 +12038,11 @@
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="72" t="str">
+      <c r="L13" s="73" t="str">
         <f>IF(N13=0, "NOT STARTED",IF(N13&gt;D13, "ERROR TO MUCH WORK", IF(N13=D13, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>NOT STARTED</v>
       </c>
-      <c r="M13" s="73"/>
+      <c r="M13" s="74"/>
       <c r="N13" s="44">
         <f>SUM(E13:K13)</f>
         <v>0</v>
@@ -12065,85 +12051,85 @@
       <c r="P13" s="44"/>
     </row>
     <row r="14" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="26">
         <v>0</v>
       </c>
       <c r="E14" s="27">
-        <f>SUM(E6:E13)</f>
+        <f t="shared" ref="E14:K14" si="4">SUM(E6:E13)</f>
         <v>3.5</v>
       </c>
       <c r="F14" s="28">
-        <f>SUM(F6:F13)</f>
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="G14" s="28">
+        <f t="shared" si="4"/>
+        <v>3.1</v>
+      </c>
+      <c r="H14" s="28">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G14" s="28">
-        <f>SUM(G6:G13)</f>
-        <v>3.5</v>
-      </c>
-      <c r="H14" s="28">
-        <f>SUM(H6:H13)</f>
-        <v>2</v>
-      </c>
       <c r="I14" s="29">
-        <f>SUM(I6:I13)</f>
+        <f t="shared" si="4"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="J14" s="30">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J14" s="30">
-        <f>SUM(J6:J13)</f>
-        <v>0</v>
-      </c>
       <c r="K14" s="28">
-        <f>SUM(K6:K13)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="32">
         <f>SUM(D6:D14)</f>
         <v>15.6</v>
       </c>
       <c r="E15" s="33">
-        <f>D15-SUM(E6:E13)</f>
+        <f t="shared" ref="E15:K15" si="5">D15-SUM(E6:E13)</f>
         <v>12.1</v>
       </c>
       <c r="F15" s="34">
-        <f>E15-SUM(F6:F13)</f>
-        <v>10.1</v>
+        <f t="shared" si="5"/>
+        <v>10.5</v>
       </c>
       <c r="G15" s="34">
-        <f>F15-SUM(G6:G13)</f>
-        <v>6.6</v>
+        <f t="shared" si="5"/>
+        <v>7.4</v>
       </c>
       <c r="H15" s="34">
-        <f>G15-SUM(H6:H13)</f>
-        <v>4.5999999999999996</v>
+        <f t="shared" si="5"/>
+        <v>5.4</v>
       </c>
       <c r="I15" s="35">
-        <f>H15-SUM(I6:I13)</f>
-        <v>4.5999999999999996</v>
+        <f t="shared" si="5"/>
+        <v>3.8000000000000007</v>
       </c>
       <c r="J15" s="36">
-        <f>I15-SUM(J6:J13)</f>
-        <v>4.5999999999999996</v>
+        <f t="shared" si="5"/>
+        <v>3.8000000000000007</v>
       </c>
       <c r="K15" s="36">
-        <f>J15-SUM(K6:K13)</f>
-        <v>4.5999999999999996</v>
+        <f t="shared" si="5"/>
+        <v>3.8000000000000007</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="39">
         <v>15.6</v>
       </c>
@@ -13138,11 +13124,6 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -13153,20 +13134,25 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L13">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M13">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"NOT ENOUGH WORK YET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"ERROR TO MUCH WORK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SE202526/Management/Sprint5/burndown/Sprint5_Burndown.xlsx
+++ b/SE202526/Management/Sprint5/burndown/Sprint5_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\UNI\y3\ES\Proj\SE2526_67775_67804_67286_68130_68547_67763\SE202526\Management\Sprint5\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1312AC4E-806E-42DD-B80A-3160C9CCDA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2838C4-7DB1-4AEA-A570-91064AED1E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3606,7 +3606,7 @@
                   <c:v>1.5999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3731,10 +3731,10 @@
                   <c:v>3.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8000000000000007</c:v>
+                  <c:v>1.2000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8000000000000007</c:v>
+                  <c:v>1.2000000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9651,6 +9651,36 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="L30:M30"/>
@@ -9660,36 +9690,6 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -11612,14 +11612,16 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L25:M25"/>
@@ -11629,16 +11631,14 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L25">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
@@ -11679,7 +11679,7 @@
   <dimension ref="B1:P976"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11803,16 +11803,18 @@
       <c r="I6" s="23">
         <v>0.5</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="22">
+        <v>0.5</v>
+      </c>
       <c r="K6" s="22"/>
       <c r="L6" s="71" t="str">
         <f t="shared" ref="L6:L10" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M6" s="72"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N10" si="1">SUM(E6:K6)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O6" s="44"/>
       <c r="P6" s="44"/>
@@ -11978,16 +11980,18 @@
       <c r="I11" s="23">
         <v>0.2</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="22">
+        <v>0.1</v>
+      </c>
       <c r="K11" s="22"/>
       <c r="L11" s="73" t="str">
         <f>IF(N11=0, "NOT STARTED",IF(N11&gt;D11, "ERROR TO MUCH WORK", IF(N11=D11, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M11" s="74"/>
       <c r="N11" s="44">
         <f>SUM(E11:K11)</f>
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O11" s="44"/>
       <c r="P11" s="44"/>
@@ -12007,16 +12011,18 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="22">
+        <v>1</v>
+      </c>
       <c r="K12" s="22"/>
       <c r="L12" s="71" t="str">
         <f t="shared" ref="L12" si="2">IF(N12=0, "NOT STARTED",IF(N12&gt;D12, "ERROR TO MUCH WORK", IF(N12=D12, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
+        <v>NOT ENOUGH WORK YET</v>
       </c>
       <c r="M12" s="72"/>
       <c r="N12" s="44">
         <f t="shared" ref="N12" si="3">SUM(E12:K12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="44"/>
       <c r="P12" s="44"/>
@@ -12036,16 +12042,18 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="22"/>
+      <c r="J13" s="22">
+        <v>1</v>
+      </c>
       <c r="K13" s="22"/>
       <c r="L13" s="73" t="str">
         <f>IF(N13=0, "NOT STARTED",IF(N13&gt;D13, "ERROR TO MUCH WORK", IF(N13=D13, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
+        <v>DONE</v>
       </c>
       <c r="M13" s="74"/>
       <c r="N13" s="44">
         <f>SUM(E13:K13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="44"/>
       <c r="P13" s="44"/>
@@ -12080,7 +12088,7 @@
       </c>
       <c r="J14" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="K14" s="28">
         <f t="shared" si="4"/>
@@ -12118,11 +12126,11 @@
       </c>
       <c r="J15" s="36">
         <f t="shared" si="5"/>
-        <v>3.8000000000000007</v>
+        <v>1.2000000000000006</v>
       </c>
       <c r="K15" s="36">
         <f t="shared" si="5"/>
-        <v>3.8000000000000007</v>
+        <v>1.2000000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -13124,6 +13132,11 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -13134,11 +13147,6 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L13">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">

--- a/SE202526/Management/Sprint5/burndown/Sprint5_Burndown.xlsx
+++ b/SE202526/Management/Sprint5/burndown/Sprint5_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\UNI\y3\ES\Proj\SE2526_67775_67804_67286_68130_68547_67763\SE202526\Management\Sprint5\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2838C4-7DB1-4AEA-A570-91064AED1E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D51EB8-CA5C-4B2A-A281-C0604384D13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3606,10 +3606,10 @@
                   <c:v>1.5999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,10 +3731,10 @@
                   <c:v>3.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2000000000000006</c:v>
+                  <c:v>0.60000000000000053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2000000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9651,36 +9651,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="L30:M30"/>
@@ -9690,6 +9660,36 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -11612,16 +11612,14 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L25:M25"/>
@@ -11631,14 +11629,16 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L25">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
@@ -11678,8 +11678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF431CF1-8E16-45D5-A381-7331DD95E65F}">
   <dimension ref="B1:P976"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11840,16 +11840,18 @@
       <c r="I7" s="23">
         <v>0.5</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="J7" s="22">
+        <v>0.5</v>
+      </c>
       <c r="K7" s="22"/>
       <c r="L7" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M7" s="72"/>
       <c r="N7" s="44">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
@@ -11877,16 +11879,18 @@
       <c r="I8" s="23">
         <v>0.4</v>
       </c>
-      <c r="J8" s="22"/>
+      <c r="J8" s="22">
+        <v>0.1</v>
+      </c>
       <c r="K8" s="22"/>
       <c r="L8" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M8" s="72"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O8" s="44"/>
       <c r="P8" s="44"/>
@@ -12014,15 +12018,17 @@
       <c r="J12" s="22">
         <v>1</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="22">
+        <v>0.6</v>
+      </c>
       <c r="L12" s="71" t="str">
         <f t="shared" ref="L12" si="2">IF(N12=0, "NOT STARTED",IF(N12&gt;D12, "ERROR TO MUCH WORK", IF(N12=D12, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M12" s="72"/>
       <c r="N12" s="44">
         <f t="shared" ref="N12" si="3">SUM(E12:K12)</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="O12" s="44"/>
       <c r="P12" s="44"/>
@@ -12088,11 +12094,11 @@
       </c>
       <c r="J14" s="30">
         <f t="shared" si="4"/>
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="K14" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12126,11 +12132,11 @@
       </c>
       <c r="J15" s="36">
         <f t="shared" si="5"/>
-        <v>1.2000000000000006</v>
+        <v>0.60000000000000053</v>
       </c>
       <c r="K15" s="36">
         <f t="shared" si="5"/>
-        <v>1.2000000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -13132,11 +13138,6 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -13147,6 +13148,11 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L13">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
